--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.64551559953041</v>
+        <v>1.754972666666667</v>
       </c>
       <c r="H2">
-        <v>1.64551559953041</v>
+        <v>5.264918</v>
       </c>
       <c r="I2">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="J2">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N2">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O2">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P2">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q2">
-        <v>43.6626263858166</v>
+        <v>50.41013907259554</v>
       </c>
       <c r="R2">
-        <v>43.6626263858166</v>
+        <v>453.6912516533599</v>
       </c>
       <c r="S2">
-        <v>0.2151239532948112</v>
+        <v>0.2163616306221322</v>
       </c>
       <c r="T2">
-        <v>0.2151239532948112</v>
+        <v>0.2163616306221323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.64551559953041</v>
+        <v>1.754972666666667</v>
       </c>
       <c r="H3">
-        <v>1.64551559953041</v>
+        <v>5.264918</v>
       </c>
       <c r="I3">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="J3">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N3">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P3">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q3">
-        <v>49.50975551308578</v>
+        <v>53.64927281876288</v>
       </c>
       <c r="R3">
-        <v>49.50975551308578</v>
+        <v>482.843455368866</v>
       </c>
       <c r="S3">
-        <v>0.2439325165307595</v>
+        <v>0.2302640770747137</v>
       </c>
       <c r="T3">
-        <v>0.2439325165307595</v>
+        <v>0.2302640770747137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.64551559953041</v>
+        <v>1.754972666666667</v>
       </c>
       <c r="H4">
-        <v>1.64551559953041</v>
+        <v>5.264918</v>
       </c>
       <c r="I4">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="J4">
-        <v>0.5174161505854458</v>
+        <v>0.5110994274238188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N4">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O4">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P4">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q4">
-        <v>11.8449707621444</v>
+        <v>15.02174469945866</v>
       </c>
       <c r="R4">
-        <v>11.8449707621444</v>
+        <v>135.195702295128</v>
       </c>
       <c r="S4">
-        <v>0.05835968075987508</v>
+        <v>0.06447371972697286</v>
       </c>
       <c r="T4">
-        <v>0.05835968075987508</v>
+        <v>0.06447371972697286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.53473997940454</v>
+        <v>1.678748</v>
       </c>
       <c r="H5">
-        <v>1.53473997940454</v>
+        <v>5.036244</v>
       </c>
       <c r="I5">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="J5">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N5">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O5">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P5">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q5">
-        <v>40.72327138025281</v>
+        <v>48.22064853498666</v>
       </c>
       <c r="R5">
-        <v>40.72327138025281</v>
+        <v>433.98583681488</v>
       </c>
       <c r="S5">
-        <v>0.200641872822914</v>
+        <v>0.2069642801751005</v>
       </c>
       <c r="T5">
-        <v>0.200641872822914</v>
+        <v>0.2069642801751005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.53473997940454</v>
+        <v>1.678748</v>
       </c>
       <c r="H6">
-        <v>1.53473997940454</v>
+        <v>5.036244</v>
       </c>
       <c r="I6">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="J6">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N6">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P6">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q6">
-        <v>46.17677351594918</v>
+        <v>51.31909525235866</v>
       </c>
       <c r="R6">
-        <v>46.17677351594918</v>
+        <v>461.871857271228</v>
       </c>
       <c r="S6">
-        <v>0.2275110521610079</v>
+        <v>0.2202628942336926</v>
       </c>
       <c r="T6">
-        <v>0.2275110521610079</v>
+        <v>0.2202628942336926</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.53473997940454</v>
+        <v>1.678748</v>
       </c>
       <c r="H7">
-        <v>1.53473997940454</v>
+        <v>5.036244</v>
       </c>
       <c r="I7">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="J7">
-        <v>0.4825838494145542</v>
+        <v>0.4889005725761812</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N7">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O7">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P7">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q7">
-        <v>11.04757085786893</v>
+        <v>14.369297225936</v>
       </c>
       <c r="R7">
-        <v>11.04757085786893</v>
+        <v>129.323675033424</v>
       </c>
       <c r="S7">
-        <v>0.05443092443063221</v>
+        <v>0.06167339816738811</v>
       </c>
       <c r="T7">
-        <v>0.05443092443063221</v>
+        <v>0.06167339816738812</v>
       </c>
     </row>
   </sheetData>
